--- a/data.xlsx
+++ b/data.xlsx
@@ -1,31 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonprojects\pandashome\pandas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29049A4-5E7D-46BF-87A8-625BBC92A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D1DDC6FA-7F29-457A-97E3-18BF522B15AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Количество продаж</t>
+  </si>
+  <si>
+    <t>Айфон</t>
+  </si>
+  <si>
+    <t>Кофемашина</t>
+  </si>
+  <si>
+    <t>Хлеб</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +164,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +176,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -144,6 +223,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,9 +275,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -330,13 +443,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423A0030-5244-407E-9CE5-525E71327768}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>121321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>125145145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>584581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>215145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E6289-5FE1-4D32-A9FD-3EDB3F746B7D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonprojects\pandashome\pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\pandashome\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29049A4-5E7D-46BF-87A8-625BBC92A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E69AA-E691-4349-ABAA-827D1525AF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{D1DDC6FA-7F29-457A-97E3-18BF522B15AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D1DDC6FA-7F29-457A-97E3-18BF522B15AF}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,13 @@
     <t>Количество продаж</t>
   </si>
   <si>
-    <t>Айфон</t>
-  </si>
-  <si>
-    <t>Кофемашина</t>
-  </si>
-  <si>
-    <t>Хлеб</t>
+    <t>Зарядка</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>стики</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
